--- a/data/virus/dxy_data_recent_daily_inc.xlsx
+++ b/data/virus/dxy_data_recent_daily_inc.xlsx
@@ -44,13 +44,13 @@
     <t>安徽</t>
   </si>
   <si>
-    <t>四川</t>
-  </si>
-  <si>
     <t>山东</t>
   </si>
   <si>
     <t>北京</t>
+  </si>
+  <si>
+    <t>四川</t>
   </si>
   <si>
     <t>福建</t>
@@ -68,10 +68,13 @@
     <t>广西</t>
   </si>
   <si>
-    <t>海南</t>
+    <t>陕西</t>
   </si>
   <si>
-    <t>陕西</t>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>海南</t>
   </si>
   <si>
     <t>河北</t>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>辽宁</t>
-  </si>
-  <si>
-    <t>云南</t>
   </si>
   <si>
     <t>天津</t>
@@ -113,13 +113,13 @@
     <t>香港</t>
   </si>
   <si>
+    <t>台湾</t>
+  </si>
+  <si>
     <t>澳门</t>
   </si>
   <si>
     <t>青海</t>
-  </si>
-  <si>
-    <t>台湾</t>
   </si>
   <si>
     <t>死亡</t>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
         <v>1</v>
@@ -5567,19 +5567,19 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW14" t="n">
         <v>1</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>10</v>
       </c>
       <c r="AX14" t="n">
         <v>0</v>
@@ -5648,20 +5648,20 @@
         <v>0</v>
       </c>
       <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
         <v>1</v>
       </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
       <c r="BY14" t="n">
         <v>0</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK14" t="n">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED14" t="n">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="EK14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:141">
@@ -5980,19 +5980,19 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
         <v>4</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>1</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -6073,58 +6073,58 @@
         <v>0</v>
       </c>
       <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
         <v>-1</v>
       </c>
-      <c r="BU15" t="n">
+      <c r="BY15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CC15" t="n">
         <v>4</v>
       </c>
-      <c r="BV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC15" t="n">
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
         <v>1</v>
       </c>
-      <c r="CD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
         <v>1</v>
       </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>-1</v>
-      </c>
       <c r="CK15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -6136,7 +6136,7 @@
         <v>-1</v>
       </c>
       <c r="CO15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
@@ -6256,19 +6256,19 @@
         <v>0</v>
       </c>
       <c r="EC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG15" t="n">
         <v>1</v>
-      </c>
-      <c r="ED15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG15" t="n">
-        <v>0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -6534,32 +6534,32 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
         <v>-1</v>
       </c>
-      <c r="CG16" t="n">
+      <c r="CK16" t="n">
         <v>1</v>
       </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
         <v>1</v>
       </c>
-      <c r="CK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>0</v>
-      </c>
       <c r="CO16" t="n">
         <v>0</v>
       </c>
@@ -6690,19 +6690,19 @@
         <v>0</v>
       </c>
       <c r="EF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ16" t="n">
         <v>1</v>
-      </c>
-      <c r="EG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ16" t="n">
-        <v>0</v>
       </c>
       <c r="EK16" t="n">
         <v>0</v>
@@ -6824,37 +6824,37 @@
         <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
         <v>-2</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AW17" t="n">
         <v>23</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>0</v>
@@ -6926,31 +6926,31 @@
         <v>0</v>
       </c>
       <c r="BU17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC17" t="n">
         <v>13</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>15</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>7</v>
       </c>
       <c r="CD17" t="n">
         <v>1</v>
@@ -6962,31 +6962,31 @@
         <v>0</v>
       </c>
       <c r="CG17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
         <v>8</v>
       </c>
-      <c r="CH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
         <v>-1</v>
       </c>
-      <c r="CK17" t="n">
+      <c r="CO17" t="n">
         <v>10</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>4</v>
       </c>
       <c r="CP17" t="n">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="EC17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ED17" t="n">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EG17" t="n">
         <v>1</v>
@@ -7127,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EK17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:141">
@@ -7249,13 +7249,13 @@
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
         <v>0</v>
@@ -7267,19 +7267,19 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV18" t="n">
         <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX18" t="n">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>-20</v>
       </c>
       <c r="BA18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BB18" t="n">
         <v>0</v>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="BU18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BV18" t="n">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="BY18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BZ18" t="n">
         <v>0</v>
@@ -7387,31 +7387,31 @@
         <v>0</v>
       </c>
       <c r="CG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
         <v>6</v>
       </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK18" t="n">
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
         <v>5</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>11</v>
       </c>
       <c r="CP18" t="n">
         <v>0</v>
@@ -7531,20 +7531,20 @@
         <v>0</v>
       </c>
       <c r="EC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG18" t="n">
         <v>3</v>
       </c>
-      <c r="ED18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG18" t="n">
-        <v>0</v>
-      </c>
       <c r="EH18" t="n">
         <v>0</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="EK18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:141">
@@ -7674,13 +7674,13 @@
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="BB19" t="n">
         <v>0</v>
@@ -7767,76 +7767,76 @@
         <v>13</v>
       </c>
       <c r="BR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ19" t="n">
         <v>1</v>
       </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU19" t="n">
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
         <v>9</v>
       </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>13</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC19" t="n">
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
         <v>5</v>
       </c>
-      <c r="CD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
         <v>1</v>
       </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK19" t="n">
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
         <v>5</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>3</v>
       </c>
       <c r="CP19" t="n">
         <v>0</v>
@@ -7968,19 +7968,19 @@
         <v>0</v>
       </c>
       <c r="EG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK19" t="n">
         <v>3</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:141">
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -8096,7 +8096,7 @@
         <v>36</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="n">
         <v>1</v>
@@ -8117,10 +8117,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AX20" t="n">
         <v>0</v>
@@ -8192,76 +8192,76 @@
         <v>5</v>
       </c>
       <c r="BR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>25</v>
+      </c>
+      <c r="BZ20" t="n">
         <v>-1</v>
       </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU20" t="n">
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
         <v>9</v>
       </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
         <v>15</v>
       </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
         <v>14</v>
       </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
         <v>8</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>7</v>
       </c>
       <c r="CP20" t="n">
         <v>0</v>
@@ -8381,31 +8381,31 @@
         <v>0</v>
       </c>
       <c r="EC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG20" t="n">
         <v>1</v>
       </c>
-      <c r="ED20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK20" t="n">
         <v>2</v>
-      </c>
-      <c r="EH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK20" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/virus/dxy_data_recent_daily_inc.xlsx
+++ b/data/virus/dxy_data_recent_daily_inc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>全国</t>
   </si>
@@ -26,43 +26,43 @@
     <t>湖北</t>
   </si>
   <si>
+    <t>浙江</t>
+  </si>
+  <si>
     <t>广东</t>
   </si>
   <si>
-    <t>浙江</t>
+    <t>湖南</t>
   </si>
   <si>
     <t>河南</t>
   </si>
   <si>
-    <t>湖南</t>
+    <t>安徽</t>
   </si>
   <si>
     <t>重庆</t>
   </si>
   <si>
-    <t>安徽</t>
-  </si>
-  <si>
     <t>山东</t>
   </si>
   <si>
-    <t>北京</t>
+    <t>江西</t>
   </si>
   <si>
     <t>四川</t>
   </si>
   <si>
-    <t>福建</t>
-  </si>
-  <si>
-    <t>江西</t>
+    <t>北京</t>
   </si>
   <si>
     <t>江苏</t>
   </si>
   <si>
     <t>上海</t>
+  </si>
+  <si>
+    <t>福建</t>
   </si>
   <si>
     <t>广西</t>
@@ -74,16 +74,16 @@
     <t>云南</t>
   </si>
   <si>
+    <t>河北</t>
+  </si>
+  <si>
     <t>海南</t>
   </si>
   <si>
-    <t>河北</t>
+    <t>辽宁</t>
   </si>
   <si>
     <t>黑龙江</t>
-  </si>
-  <si>
-    <t>辽宁</t>
   </si>
   <si>
     <t>天津</t>
@@ -98,19 +98,19 @@
     <t>内蒙古</t>
   </si>
   <si>
+    <t>新疆</t>
+  </si>
+  <si>
     <t>宁夏</t>
   </si>
   <si>
-    <t>新疆</t>
+    <t>香港</t>
   </si>
   <si>
     <t>贵州</t>
   </si>
   <si>
     <t>吉林</t>
-  </si>
-  <si>
-    <t>香港</t>
   </si>
   <si>
     <t>台湾</t>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>青海</t>
+  </si>
+  <si>
+    <t>西藏</t>
   </si>
   <si>
     <t>死亡</t>
@@ -186,6 +189,9 @@
   </si>
   <si>
     <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2020-01-29</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EK20"/>
+  <dimension ref="A1:EO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +548,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:141">
+    <row r="1" spans="1:145">
       <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -754,438 +760,456 @@
       <c r="EI1" s="1" t="n"/>
       <c r="EJ1" s="1" t="n"/>
       <c r="EK1" s="1" t="n"/>
+      <c r="EL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="EM1" s="1" t="n"/>
+      <c r="EN1" s="1" t="n"/>
+      <c r="EO1" s="1" t="n"/>
     </row>
-    <row r="2" spans="1:141">
+    <row r="2" spans="1:145">
       <c r="A2" s="1" t="s"/>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BB2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BN2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BN2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BR2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BV2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BV2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BZ2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CD2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CD2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CH2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CL2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CL2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CP2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CR2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CP2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CQ2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CT2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CT2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CX2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CY2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DB2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DB2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DF2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DG2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DH2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DF2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DG2" s="1" t="s">
+      <c r="DI2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DH2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="DL2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DJ2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DN2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DN2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DQ2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DR2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DS2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DR2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DS2" s="1" t="s">
+      <c r="DU2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DV2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DT2" s="1" t="s">
+      <c r="DW2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DU2" s="1" t="s">
+      <c r="DX2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DV2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DW2" s="1" t="s">
+      <c r="DY2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="DZ2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="DX2" s="1" t="s">
+      <c r="EA2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DY2" s="1" t="s">
+      <c r="EB2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DZ2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="EA2" s="1" t="s">
+      <c r="EC2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="ED2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="EB2" s="1" t="s">
+      <c r="EE2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="EC2" s="1" t="s">
+      <c r="EF2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="ED2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="EE2" s="1" t="s">
+      <c r="EG2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="EH2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="EF2" s="1" t="s">
+      <c r="EI2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="EG2" s="1" t="s">
+      <c r="EJ2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="EH2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="EI2" s="1" t="s">
+      <c r="EK2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="EL2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="EJ2" s="1" t="s">
+      <c r="EM2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="EK2" s="1" t="s">
+      <c r="EN2" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="EO2" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:141">
+    <row r="3" spans="1:145">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:141">
+    <row r="4" spans="1:145">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1607,10 +1631,22 @@
       <c r="EK4" t="n">
         <v>0</v>
       </c>
+      <c r="EL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:141">
+    <row r="5" spans="1:145">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -2032,10 +2068,22 @@
       <c r="EK5" t="n">
         <v>0</v>
       </c>
+      <c r="EL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:141">
+    <row r="6" spans="1:145">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -2457,10 +2505,22 @@
       <c r="EK6" t="n">
         <v>0</v>
       </c>
+      <c r="EL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:141">
+    <row r="7" spans="1:145">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -2882,10 +2942,22 @@
       <c r="EK7" t="n">
         <v>0</v>
       </c>
+      <c r="EL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:141">
+    <row r="8" spans="1:145">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -3307,10 +3379,22 @@
       <c r="EK8" t="n">
         <v>0</v>
       </c>
+      <c r="EL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:141">
+    <row r="9" spans="1:145">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -3732,10 +3816,22 @@
       <c r="EK9" t="n">
         <v>0</v>
       </c>
+      <c r="EL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:141">
+    <row r="10" spans="1:145">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -4157,10 +4253,22 @@
       <c r="EK10" t="n">
         <v>0</v>
       </c>
+      <c r="EL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:141">
+    <row r="11" spans="1:145">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -4582,10 +4690,22 @@
       <c r="EK11" t="n">
         <v>0</v>
       </c>
+      <c r="EL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:141">
+    <row r="12" spans="1:145">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -5007,10 +5127,22 @@
       <c r="EK12" t="n">
         <v>0</v>
       </c>
+      <c r="EL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:141">
+    <row r="13" spans="1:145">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -5432,10 +5564,22 @@
       <c r="EK13" t="n">
         <v>0</v>
       </c>
+      <c r="EL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO13" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:141">
+    <row r="14" spans="1:145">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -5444,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>154</v>
@@ -5480,70 +5624,70 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>4</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="U14" t="n">
         <v>17</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>11</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
         <v>5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -5564,10 +5708,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
@@ -5591,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB14" t="n">
         <v>0</v>
@@ -5600,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -5612,10 +5756,10 @@
         <v>0</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BJ14" t="n">
         <v>0</v>
@@ -5624,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -5672,20 +5816,20 @@
         <v>0</v>
       </c>
       <c r="CB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>1</v>
       </c>
-      <c r="CC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
       <c r="CG14" t="n">
         <v>0</v>
       </c>
@@ -5696,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK14" t="n">
         <v>0</v>
@@ -5708,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -5768,20 +5912,20 @@
         <v>0</v>
       </c>
       <c r="DH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL14" t="n">
         <v>1</v>
       </c>
-      <c r="DI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL14" t="n">
-        <v>0</v>
-      </c>
       <c r="DM14" t="n">
         <v>0</v>
       </c>
@@ -5792,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="DP14" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
@@ -5816,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -5857,10 +6001,22 @@
       <c r="EK14" t="n">
         <v>0</v>
       </c>
+      <c r="EL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO14" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:141">
+    <row r="15" spans="1:145">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" t="n">
         <v>8</v>
@@ -5869,7 +6025,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-137</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>126</v>
@@ -5905,22 +6061,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>-3</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="U15" t="n">
         <v>9</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>-11</v>
-      </c>
-      <c r="U15" t="n">
-        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -5953,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG15" t="n">
         <v>1</v>
@@ -5965,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>1</v>
@@ -5989,10 +6145,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -6016,20 +6172,20 @@
         <v>0</v>
       </c>
       <c r="BA15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
         <v>1</v>
       </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>2</v>
-      </c>
       <c r="BF15" t="n">
         <v>0</v>
       </c>
@@ -6037,22 +6193,22 @@
         <v>0</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BI15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
         <v>1</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>7</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>3</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -6097,46 +6253,46 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>-1</v>
       </c>
-      <c r="CC15" t="n">
+      <c r="CG15" t="n">
         <v>4</v>
       </c>
-      <c r="CD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG15" t="n">
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
         <v>1</v>
       </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>-1</v>
-      </c>
       <c r="CO15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CP15" t="n">
         <v>0</v>
@@ -6193,23 +6349,23 @@
         <v>0</v>
       </c>
       <c r="DH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL15" t="n">
         <v>-1</v>
       </c>
-      <c r="DI15" t="n">
+      <c r="DM15" t="n">
         <v>1</v>
       </c>
-      <c r="DJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM15" t="n">
-        <v>0</v>
-      </c>
       <c r="DN15" t="n">
         <v>0</v>
       </c>
@@ -6217,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="DP15" t="n">
-        <v>-1</v>
+        <v>-117</v>
       </c>
       <c r="DQ15" t="n">
         <v>1</v>
@@ -6229,10 +6385,10 @@
         <v>0</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DU15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV15" t="n">
         <v>0</v>
@@ -6241,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="DY15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
         <v>0</v>
@@ -6282,10 +6438,22 @@
       <c r="EK15" t="n">
         <v>0</v>
       </c>
+      <c r="EL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO15" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:141">
+    <row r="16" spans="1:145">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -6294,7 +6462,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>109</v>
@@ -6378,19 +6546,19 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>13</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
@@ -6546,22 +6714,22 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
         <v>-1</v>
       </c>
-      <c r="CK16" t="n">
+      <c r="CO16" t="n">
         <v>1</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>0</v>
       </c>
       <c r="CP16" t="n">
         <v>0</v>
@@ -6707,10 +6875,22 @@
       <c r="EK16" t="n">
         <v>0</v>
       </c>
+      <c r="EL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO16" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:141">
+    <row r="17" spans="1:145">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -6719,7 +6899,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>241</v>
@@ -6752,10 +6932,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>52</v>
@@ -6764,10 +6944,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U17" t="n">
         <v>52</v>
@@ -6782,20 +6962,20 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>27</v>
       </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>39</v>
-      </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
@@ -6803,22 +6983,22 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>-13</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AK17" t="n">
         <v>51</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>38</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
@@ -6836,13 +7016,13 @@
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -6860,25 +7040,25 @@
         <v>0</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
         <v>17</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>16</v>
       </c>
       <c r="BF17" t="n">
         <v>0</v>
@@ -6887,22 +7067,22 @@
         <v>1</v>
       </c>
       <c r="BH17" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="BI17" t="n">
+        <v>24</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>20</v>
+      </c>
+      <c r="BM17" t="n">
         <v>17</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>-10</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>24</v>
       </c>
       <c r="BN17" t="n">
         <v>0</v>
@@ -6941,7 +7121,7 @@
         <v>4</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA17" t="n">
         <v>0</v>
@@ -6950,43 +7130,43 @@
         <v>0</v>
       </c>
       <c r="CC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
         <v>13</v>
       </c>
-      <c r="CD17" t="n">
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>10</v>
+      </c>
+      <c r="CL17" t="n">
         <v>1</v>
       </c>
-      <c r="CE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>7</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK17" t="n">
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
         <v>8</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>10</v>
       </c>
       <c r="CP17" t="n">
         <v>0</v>
@@ -7046,52 +7226,52 @@
         <v>0</v>
       </c>
       <c r="DI17" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM17" t="n">
         <v>2</v>
       </c>
-      <c r="DJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM17" t="n">
+      <c r="DN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>4</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU17" t="n">
         <v>3</v>
       </c>
-      <c r="DN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ17" t="n">
-        <v>3</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT17" t="n">
+      <c r="DV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX17" t="n">
         <v>-1</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>4</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>0</v>
       </c>
       <c r="DY17" t="n">
         <v>4</v>
@@ -7132,10 +7312,22 @@
       <c r="EK17" t="n">
         <v>1</v>
       </c>
+      <c r="EL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO17" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:141">
+    <row r="18" spans="1:145">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="n">
         <v>16</v>
@@ -7144,7 +7336,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>508</v>
@@ -7183,44 +7375,44 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
+        <v>42</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>20</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>42</v>
-      </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z18" t="n">
         <v>1</v>
       </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
         <v>51</v>
       </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>26</v>
-      </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
@@ -7231,19 +7423,19 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
         <v>18</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
@@ -7261,13 +7453,13 @@
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -7285,49 +7477,49 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
         <v>-20</v>
       </c>
-      <c r="BA18" t="n">
+      <c r="BM18" t="n">
         <v>11</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>18</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>13</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>7</v>
       </c>
       <c r="BN18" t="n">
         <v>0</v>
@@ -7399,19 +7591,19 @@
         <v>0</v>
       </c>
       <c r="CK18" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
         <v>6</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>5</v>
       </c>
       <c r="CP18" t="n">
         <v>0</v>
@@ -7495,19 +7687,19 @@
         <v>0</v>
       </c>
       <c r="DQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU18" t="n">
         <v>1</v>
-      </c>
-      <c r="DR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>0</v>
       </c>
       <c r="DV18" t="n">
         <v>0</v>
@@ -7557,10 +7749,22 @@
       <c r="EK18" t="n">
         <v>0</v>
       </c>
+      <c r="EL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO18" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:141">
+    <row r="19" spans="1:145">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="n">
         <v>14</v>
@@ -7569,7 +7773,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>671</v>
@@ -7608,20 +7812,20 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>24</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>48</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>24</v>
-      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
@@ -7632,20 +7836,20 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
         <v>45</v>
       </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>31</v>
-      </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
@@ -7656,19 +7860,19 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
         <v>35</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>10</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
@@ -7692,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -7716,43 +7920,43 @@
         <v>0</v>
       </c>
       <c r="BA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>16</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
         <v>27</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>12</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>16</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>13</v>
       </c>
       <c r="BN19" t="n">
         <v>0</v>
@@ -7791,52 +7995,52 @@
         <v>3</v>
       </c>
       <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>5</v>
+      </c>
+      <c r="CD19" t="n">
         <v>1</v>
       </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC19" t="n">
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
         <v>9</v>
       </c>
-      <c r="CD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
         <v>5</v>
       </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK19" t="n">
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
         <v>1</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>5</v>
       </c>
       <c r="CP19" t="n">
         <v>0</v>
@@ -7896,20 +8100,20 @@
         <v>0</v>
       </c>
       <c r="DI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM19" t="n">
         <v>3</v>
       </c>
-      <c r="DJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM19" t="n">
-        <v>1</v>
-      </c>
       <c r="DN19" t="n">
         <v>0</v>
       </c>
@@ -7920,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="DQ19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DR19" t="n">
         <v>0</v>
@@ -7944,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="DY19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DZ19" t="n">
         <v>0</v>
@@ -7982,10 +8186,22 @@
       <c r="EK19" t="n">
         <v>3</v>
       </c>
+      <c r="EL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:141">
+    <row r="20" spans="1:145">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="n">
         <v>26</v>
@@ -7994,7 +8210,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5794</v>
       </c>
       <c r="E20" t="n">
         <v>803</v>
@@ -8027,26 +8243,26 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>45</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>2</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>42</v>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>45</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
@@ -8057,20 +8273,20 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
         <v>40</v>
       </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>43</v>
-      </c>
       <c r="AD20" t="n">
         <v>0</v>
       </c>
@@ -8081,19 +8297,19 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>22</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>36</v>
       </c>
       <c r="AL20" t="n">
         <v>1</v>
@@ -8108,7 +8324,7 @@
         <v>24</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -8117,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
@@ -8132,7 +8348,7 @@
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>0</v>
@@ -8141,43 +8357,43 @@
         <v>0</v>
       </c>
       <c r="BA20" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>23</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
         <v>17</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>24</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>23</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>13</v>
       </c>
       <c r="BN20" t="n">
         <v>0</v>
@@ -8216,29 +8432,29 @@
         <v>25</v>
       </c>
       <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="CD20" t="n">
         <v>-1</v>
       </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
         <v>9</v>
       </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>15</v>
-      </c>
       <c r="CH20" t="n">
         <v>0</v>
       </c>
@@ -8249,19 +8465,19 @@
         <v>0</v>
       </c>
       <c r="CK20" t="n">
+        <v>8</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
         <v>14</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>8</v>
       </c>
       <c r="CP20" t="n">
         <v>0</v>
@@ -8321,20 +8537,20 @@
         <v>0</v>
       </c>
       <c r="DI20" t="n">
+        <v>5</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM20" t="n">
         <v>4</v>
       </c>
-      <c r="DJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>5</v>
-      </c>
       <c r="DN20" t="n">
         <v>0</v>
       </c>
@@ -8345,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="DQ20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DR20" t="n">
         <v>0</v>
@@ -8369,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="DY20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DZ20" t="n">
         <v>0</v>
@@ -8407,9 +8623,458 @@
       <c r="EK20" t="n">
         <v>2</v>
       </c>
+      <c r="EL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:145">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="n">
+        <v>24</v>
+      </c>
+      <c r="C21" t="n">
+        <v>18</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1178</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1751</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>315</v>
+      </c>
+      <c r="J21" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>33</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>840</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>123</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>53</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>29</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>9</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>15</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>6</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>2</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>7</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>5</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>2</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY21" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN21" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO21" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="BN1:BQ1"/>
     <mergeCell ref="ED1:EG1"/>
@@ -8438,6 +9103,7 @@
     <mergeCell ref="CT1:CW1"/>
     <mergeCell ref="AX1:BA1"/>
     <mergeCell ref="BV1:BY1"/>
+    <mergeCell ref="EL1:EO1"/>
     <mergeCell ref="BB1:BE1"/>
     <mergeCell ref="DF1:DI1"/>
     <mergeCell ref="BF1:BI1"/>

--- a/data/virus/dxy_data_recent_daily_inc.xlsx
+++ b/data/virus/dxy_data_recent_daily_inc.xlsx
@@ -32,10 +32,10 @@
     <t>广东</t>
   </si>
   <si>
-    <t>湖南</t>
+    <t>河南</t>
   </si>
   <si>
-    <t>河南</t>
+    <t>湖南</t>
   </si>
   <si>
     <t>安徽</t>
@@ -44,19 +44,19 @@
     <t>重庆</t>
   </si>
   <si>
-    <t>山东</t>
+    <t>江西</t>
   </si>
   <si>
-    <t>江西</t>
+    <t>山东</t>
   </si>
   <si>
     <t>四川</t>
   </si>
   <si>
-    <t>北京</t>
+    <t>江苏</t>
   </si>
   <si>
-    <t>江苏</t>
+    <t>北京</t>
   </si>
   <si>
     <t>上海</t>
@@ -68,28 +68,28 @@
     <t>广西</t>
   </si>
   <si>
-    <t>陕西</t>
-  </si>
-  <si>
     <t>云南</t>
   </si>
   <si>
     <t>河北</t>
   </si>
   <si>
+    <t>陕西</t>
+  </si>
+  <si>
     <t>海南</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
   </si>
   <si>
     <t>辽宁</t>
   </si>
   <si>
-    <t>黑龙江</t>
+    <t>山西</t>
   </si>
   <si>
     <t>天津</t>
-  </si>
-  <si>
-    <t>山西</t>
   </si>
   <si>
     <t>甘肃</t>
@@ -98,28 +98,28 @@
     <t>内蒙古</t>
   </si>
   <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
     <t>新疆</t>
   </si>
   <si>
-    <t>宁夏</t>
+    <t>贵州</t>
   </si>
   <si>
     <t>香港</t>
   </si>
   <si>
-    <t>贵州</t>
-  </si>
-  <si>
-    <t>吉林</t>
-  </si>
-  <si>
     <t>台湾</t>
   </si>
   <si>
-    <t>澳门</t>
+    <t>青海</t>
   </si>
   <si>
-    <t>青海</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>西藏</t>
@@ -137,7 +137,7 @@
     <t>确诊</t>
   </si>
   <si>
-    <t>日期</t>
+    <t>2020-01-11</t>
   </si>
   <si>
     <t>2020-01-12</t>
@@ -540,7 +540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO21"/>
+  <dimension ref="A1:EO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,14 +1202,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:145">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="4" spans="1:145">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1646,7 +1641,7 @@
     </row>
     <row r="5" spans="1:145">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -2083,7 +2078,7 @@
     </row>
     <row r="6" spans="1:145">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -2520,7 +2515,7 @@
     </row>
     <row r="7" spans="1:145">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -2957,7 +2952,7 @@
     </row>
     <row r="8" spans="1:145">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -3394,7 +3389,7 @@
     </row>
     <row r="9" spans="1:145">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -3831,7 +3826,7 @@
     </row>
     <row r="10" spans="1:145">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -4268,7 +4263,7 @@
     </row>
     <row r="11" spans="1:145">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -4705,7 +4700,7 @@
     </row>
     <row r="12" spans="1:145">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -5142,7 +5137,7 @@
     </row>
     <row r="13" spans="1:145">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -5154,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -5579,19 +5574,19 @@
     </row>
     <row r="14" spans="1:145">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
@@ -5651,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -5663,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -5696,22 +5691,22 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
         <v>1</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
@@ -5735,19 +5730,19 @@
         <v>0</v>
       </c>
       <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
         <v>10</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
@@ -5792,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5804,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY14" t="n">
         <v>0</v>
@@ -5840,20 +5835,20 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
         <v>1</v>
       </c>
-      <c r="CK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>0</v>
-      </c>
       <c r="CO14" t="n">
         <v>0</v>
       </c>
@@ -5867,20 +5862,20 @@
         <v>0</v>
       </c>
       <c r="CS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW14" t="n">
         <v>2</v>
       </c>
-      <c r="CT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW14" t="n">
-        <v>0</v>
-      </c>
       <c r="CX14" t="n">
         <v>0</v>
       </c>
@@ -5912,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI14" t="n">
         <v>0</v>
@@ -5936,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="DP14" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
@@ -5960,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -6016,19 +6011,19 @@
     </row>
     <row r="15" spans="1:145">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>8</v>
@@ -6133,22 +6128,22 @@
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
         <v>1</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -6172,19 +6167,19 @@
         <v>0</v>
       </c>
       <c r="BA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
         <v>4</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>1</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
@@ -6229,10 +6224,10 @@
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV15" t="n">
         <v>0</v>
@@ -6241,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BY15" t="n">
         <v>1</v>
@@ -6256,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
@@ -6277,83 +6272,83 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
         <v>-1</v>
       </c>
-      <c r="CK15" t="n">
+      <c r="CO15" t="n">
         <v>2</v>
       </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN15" t="n">
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="n">
         <v>1</v>
       </c>
-      <c r="CO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS15" t="n">
+      <c r="CT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW15" t="n">
         <v>2</v>
       </c>
-      <c r="CT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW15" t="n">
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI15" t="n">
         <v>1</v>
       </c>
-      <c r="CX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI15" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ15" t="n">
         <v>0</v>
       </c>
@@ -6361,10 +6356,10 @@
         <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DM15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
         <v>0</v>
@@ -6373,10 +6368,10 @@
         <v>0</v>
       </c>
       <c r="DP15" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR15" t="n">
         <v>0</v>
@@ -6397,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ15" t="n">
         <v>0</v>
@@ -6424,19 +6419,19 @@
         <v>0</v>
       </c>
       <c r="EG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK15" t="n">
         <v>1</v>
-      </c>
-      <c r="EH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK15" t="n">
-        <v>0</v>
       </c>
       <c r="EL15" t="n">
         <v>0</v>
@@ -6453,19 +6448,19 @@
     </row>
     <row r="16" spans="1:145">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>109</v>
+        <v>343</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
@@ -6714,11 +6709,11 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK16" t="n">
         <v>1</v>
       </c>
-      <c r="CK16" t="n">
-        <v>0</v>
-      </c>
       <c r="CL16" t="n">
         <v>0</v>
       </c>
@@ -6726,140 +6721,140 @@
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF16" t="n">
         <v>1</v>
       </c>
-      <c r="CP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF16" t="n">
-        <v>0</v>
-      </c>
       <c r="EG16" t="n">
         <v>0</v>
       </c>
@@ -6870,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="EJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK16" t="n">
         <v>0</v>
@@ -6890,19 +6885,19 @@
     </row>
     <row r="17" spans="1:145">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241</v>
+        <v>480</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
@@ -6962,19 +6957,19 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
         <v>39</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>27</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -7004,25 +6999,25 @@
         <v>0</v>
       </c>
       <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>1</v>
       </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
         <v>19</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>16</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -7040,25 +7035,25 @@
         <v>0</v>
       </c>
       <c r="AY17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
         <v>3</v>
       </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
         <v>27</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>17</v>
       </c>
       <c r="BF17" t="n">
         <v>0</v>
@@ -7106,31 +7101,31 @@
         <v>0</v>
       </c>
       <c r="BU17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC17" t="n">
         <v>15</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>4</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>7</v>
       </c>
       <c r="CD17" t="n">
         <v>0</v>
@@ -7145,28 +7140,28 @@
         <v>13</v>
       </c>
       <c r="CH17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI17" t="n">
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
         <v>-1</v>
       </c>
-      <c r="CK17" t="n">
+      <c r="CO17" t="n">
         <v>10</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>8</v>
       </c>
       <c r="CP17" t="n">
         <v>0</v>
@@ -7226,31 +7221,31 @@
         <v>0</v>
       </c>
       <c r="DI17" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>4</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ17" t="n">
         <v>3</v>
-      </c>
-      <c r="DJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM17" t="n">
-        <v>2</v>
-      </c>
-      <c r="DN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ17" t="n">
-        <v>4</v>
       </c>
       <c r="DR17" t="n">
         <v>0</v>
@@ -7271,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="DX17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DY17" t="n">
         <v>4</v>
@@ -7295,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EG17" t="n">
         <v>1</v>
@@ -7307,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EK17" t="n">
         <v>1</v>
@@ -7327,19 +7322,19 @@
     </row>
     <row r="18" spans="1:145">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>508</v>
+        <v>694</v>
       </c>
       <c r="F18" t="n">
         <v>7</v>
@@ -7390,7 +7385,7 @@
         <v>20</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -7399,19 +7394,19 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
         <v>26</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>51</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -7441,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -7453,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -7477,25 +7472,25 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
         <v>-1</v>
       </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
         <v>10</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>13</v>
       </c>
       <c r="BF18" t="n">
         <v>0</v>
@@ -7543,31 +7538,31 @@
         <v>0</v>
       </c>
       <c r="BU18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
         <v>7</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>11</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>5</v>
       </c>
       <c r="CD18" t="n">
         <v>0</v>
@@ -7591,20 +7586,20 @@
         <v>0</v>
       </c>
       <c r="CK18" t="n">
+        <v>6</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
         <v>5</v>
       </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>6</v>
-      </c>
       <c r="CP18" t="n">
         <v>0</v>
       </c>
@@ -7615,19 +7610,19 @@
         <v>0</v>
       </c>
       <c r="CS18" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW18" t="n">
         <v>4</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>3</v>
       </c>
       <c r="CX18" t="n">
         <v>0</v>
@@ -7675,19 +7670,19 @@
         <v>0</v>
       </c>
       <c r="DM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ18" t="n">
         <v>1</v>
-      </c>
-      <c r="DN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ18" t="n">
-        <v>0</v>
       </c>
       <c r="DR18" t="n">
         <v>0</v>
@@ -7735,19 +7730,19 @@
         <v>0</v>
       </c>
       <c r="EG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK18" t="n">
         <v>3</v>
-      </c>
-      <c r="EH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK18" t="n">
-        <v>0</v>
       </c>
       <c r="EL18" t="n">
         <v>0</v>
@@ -7764,19 +7759,19 @@
     </row>
     <row r="19" spans="1:145">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>5794</v>
       </c>
       <c r="E19" t="n">
-        <v>671</v>
+        <v>786</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -7836,19 +7831,19 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
         <v>31</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>45</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -7884,19 +7879,19 @@
         <v>0</v>
       </c>
       <c r="AO19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
         <v>24</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -7920,19 +7915,19 @@
         <v>0</v>
       </c>
       <c r="BA19" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
         <v>17</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>16</v>
       </c>
       <c r="BF19" t="n">
         <v>1</v>
@@ -7980,31 +7975,31 @@
         <v>0</v>
       </c>
       <c r="BU19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
         <v>13</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>5</v>
       </c>
       <c r="CD19" t="n">
         <v>1</v>
@@ -8028,19 +8023,19 @@
         <v>0</v>
       </c>
       <c r="CK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
         <v>5</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>1</v>
       </c>
       <c r="CP19" t="n">
         <v>0</v>
@@ -8100,31 +8095,31 @@
         <v>0</v>
       </c>
       <c r="DI19" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>2</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ19" t="n">
         <v>1</v>
-      </c>
-      <c r="DJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM19" t="n">
-        <v>3</v>
-      </c>
-      <c r="DN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ19" t="n">
-        <v>3</v>
       </c>
       <c r="DR19" t="n">
         <v>0</v>
@@ -8148,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="DY19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DZ19" t="n">
         <v>0</v>
@@ -8172,19 +8167,19 @@
         <v>0</v>
       </c>
       <c r="EG19" t="n">
+        <v>3</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK19" t="n">
         <v>1</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>3</v>
       </c>
       <c r="EL19" t="n">
         <v>0</v>
@@ -8201,19 +8196,19 @@
     </row>
     <row r="20" spans="1:145">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>5794</v>
+        <v>1179</v>
       </c>
       <c r="E20" t="n">
-        <v>803</v>
+        <v>1773</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
@@ -8273,19 +8268,19 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
         <v>43</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>40</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -8312,7 +8307,7 @@
         <v>22</v>
       </c>
       <c r="AL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -8324,7 +8319,7 @@
         <v>24</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -8348,7 +8343,7 @@
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" t="n">
         <v>0</v>
@@ -8360,7 +8355,7 @@
         <v>23</v>
       </c>
       <c r="BB20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" t="n">
         <v>0</v>
@@ -8417,31 +8412,31 @@
         <v>0</v>
       </c>
       <c r="BU20" t="n">
+        <v>25</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
         <v>11</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>25</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>15</v>
       </c>
       <c r="CD20" t="n">
         <v>-1</v>
@@ -8465,20 +8460,20 @@
         <v>0</v>
       </c>
       <c r="CK20" t="n">
+        <v>14</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
         <v>8</v>
       </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>14</v>
-      </c>
       <c r="CP20" t="n">
         <v>0</v>
       </c>
@@ -8489,19 +8484,19 @@
         <v>0</v>
       </c>
       <c r="CS20" t="n">
+        <v>7</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW20" t="n">
         <v>6</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>7</v>
       </c>
       <c r="CX20" t="n">
         <v>0</v>
@@ -8537,31 +8532,31 @@
         <v>0</v>
       </c>
       <c r="DI20" t="n">
+        <v>4</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ20" t="n">
         <v>5</v>
-      </c>
-      <c r="DJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>4</v>
-      </c>
-      <c r="DN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ20" t="n">
-        <v>0</v>
       </c>
       <c r="DR20" t="n">
         <v>0</v>
@@ -8585,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="DY20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DZ20" t="n">
         <v>0</v>
@@ -8609,19 +8604,19 @@
         <v>0</v>
       </c>
       <c r="EG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK20" t="n">
         <v>1</v>
-      </c>
-      <c r="EH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK20" t="n">
-        <v>2</v>
       </c>
       <c r="EL20" t="n">
         <v>0</v>
@@ -8638,19 +8633,19 @@
     </row>
     <row r="21" spans="1:145">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D21" t="n">
-        <v>1178</v>
+        <v>2266</v>
       </c>
       <c r="E21" t="n">
-        <v>1751</v>
+        <v>1465</v>
       </c>
       <c r="F21" t="n">
         <v>19</v>
@@ -8701,28 +8696,28 @@
         <v>53</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
         <v>78</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>38</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -8749,28 +8744,28 @@
         <v>15</v>
       </c>
       <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP21" t="n">
         <v>-1</v>
       </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
         <v>34</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>37</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
@@ -8788,25 +8783,25 @@
         <v>0</v>
       </c>
       <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
         <v>2</v>
       </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
         <v>11</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>29</v>
       </c>
       <c r="BF21" t="n">
         <v>0</v>
@@ -8854,31 +8849,31 @@
         <v>0</v>
       </c>
       <c r="BU21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>15</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
         <v>10</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>7</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>15</v>
       </c>
       <c r="CD21" t="n">
         <v>1</v>
@@ -8902,20 +8897,20 @@
         <v>0</v>
       </c>
       <c r="CK21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
         <v>6</v>
       </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>3</v>
-      </c>
       <c r="CP21" t="n">
         <v>0</v>
       </c>
@@ -8926,19 +8921,19 @@
         <v>0</v>
       </c>
       <c r="CS21" t="n">
+        <v>7</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW21" t="n">
         <v>2</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW21" t="n">
-        <v>7</v>
       </c>
       <c r="CX21" t="n">
         <v>0</v>
@@ -8974,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="DI21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DJ21" t="n">
         <v>0</v>
@@ -8998,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="DQ21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DR21" t="n">
         <v>0</v>
@@ -9022,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="DY21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DZ21" t="n">
         <v>0</v>
@@ -9071,6 +9066,443 @@
       </c>
       <c r="EO21" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:145">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="n">
+        <v>38</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2928</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2054</v>
+      </c>
+      <c r="F22" t="n">
+        <v>25</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>356</v>
+      </c>
+      <c r="J22" t="n">
+        <v>37</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1032</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>132</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>70</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>72</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>53</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>17</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>5</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>8</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>2</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>5</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>5</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU22" t="n">
+        <v>3</v>
+      </c>
+      <c r="DV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG22" t="n">
+        <v>2</v>
+      </c>
+      <c r="EH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EO22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/virus/dxy_data_recent_daily_inc.xlsx
+++ b/data/virus/dxy_data_recent_daily_inc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>全国</t>
   </si>
@@ -38,13 +38,13 @@
     <t>湖南</t>
   </si>
   <si>
+    <t>江西</t>
+  </si>
+  <si>
     <t>安徽</t>
   </si>
   <si>
     <t>重庆</t>
-  </si>
-  <si>
-    <t>江西</t>
   </si>
   <si>
     <t>山东</t>
@@ -56,10 +56,10 @@
     <t>江苏</t>
   </si>
   <si>
-    <t>北京</t>
+    <t>上海</t>
   </si>
   <si>
-    <t>上海</t>
+    <t>北京</t>
   </si>
   <si>
     <t>福建</t>
@@ -68,19 +68,19 @@
     <t>广西</t>
   </si>
   <si>
-    <t>云南</t>
+    <t>陕西</t>
   </si>
   <si>
     <t>河北</t>
   </si>
   <si>
-    <t>陕西</t>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
   </si>
   <si>
     <t>海南</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
   </si>
   <si>
     <t>辽宁</t>
@@ -95,19 +95,19 @@
     <t>甘肃</t>
   </si>
   <si>
-    <t>内蒙古</t>
-  </si>
-  <si>
     <t>宁夏</t>
   </si>
   <si>
-    <t>吉林</t>
+    <t>内蒙古</t>
   </si>
   <si>
     <t>新疆</t>
   </si>
   <si>
     <t>贵州</t>
+  </si>
+  <si>
+    <t>吉林</t>
   </si>
   <si>
     <t>香港</t>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>2020-01-29</t>
+  </si>
+  <si>
+    <t>2020-01-30</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO22"/>
+  <dimension ref="A1:EO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5679,22 +5682,22 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
@@ -5739,22 +5742,22 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
         <v>10</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>6</v>
       </c>
       <c r="BJ14" t="n">
         <v>0</v>
@@ -5787,32 +5790,32 @@
         <v>0</v>
       </c>
       <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
         <v>1</v>
       </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>0</v>
-      </c>
       <c r="CC14" t="n">
         <v>0</v>
       </c>
@@ -5823,19 +5826,19 @@
         <v>0</v>
       </c>
       <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
         <v>1</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>0</v>
       </c>
       <c r="CK14" t="n">
         <v>0</v>
@@ -5895,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="DD14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE14" t="n">
         <v>0</v>
@@ -5907,31 +5910,31 @@
         <v>0</v>
       </c>
       <c r="DH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP14" t="n">
         <v>1</v>
-      </c>
-      <c r="DI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL14" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP14" t="n">
-        <v>0</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
@@ -6104,19 +6107,19 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>3</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>1</v>
@@ -6128,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP15" t="n">
         <v>0</v>
@@ -6176,22 +6179,22 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BE15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
         <v>4</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>3</v>
       </c>
       <c r="BJ15" t="n">
         <v>0</v>
@@ -6224,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
         <v>0</v>
@@ -6248,10 +6251,10 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CC15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
@@ -6260,22 +6263,22 @@
         <v>0</v>
       </c>
       <c r="CF15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
         <v>-1</v>
       </c>
-      <c r="CG15" t="n">
+      <c r="CK15" t="n">
         <v>4</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>0</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -6332,10 +6335,10 @@
         <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DE15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF15" t="n">
         <v>0</v>
@@ -6344,35 +6347,35 @@
         <v>0</v>
       </c>
       <c r="DH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP15" t="n">
         <v>-1</v>
       </c>
-      <c r="DI15" t="n">
+      <c r="DQ15" t="n">
         <v>1</v>
       </c>
-      <c r="DJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ15" t="n">
-        <v>0</v>
-      </c>
       <c r="DR15" t="n">
         <v>0</v>
       </c>
@@ -6380,10 +6383,10 @@
         <v>0</v>
       </c>
       <c r="DT15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DU15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV15" t="n">
         <v>0</v>
@@ -6553,19 +6556,19 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>13</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
       </c>
       <c r="AO16" t="n">
         <v>0</v>
@@ -6697,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH16" t="n">
         <v>0</v>
@@ -6709,10 +6712,10 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6978,34 +6981,34 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>-4</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AK17" t="n">
         <v>38</v>
       </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>-13</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AO17" t="n">
         <v>51</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>16</v>
       </c>
       <c r="AP17" t="n">
         <v>0</v>
@@ -7047,25 +7050,25 @@
         <v>0</v>
       </c>
       <c r="BC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>-10</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>24</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
         <v>3</v>
       </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
+      <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
         <v>27</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>-10</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>24</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
@@ -7101,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="BU17" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BV17" t="n">
         <v>1</v>
@@ -7125,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="CD17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -7137,19 +7140,19 @@
         <v>0</v>
       </c>
       <c r="CG17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
         <v>13</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>8</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -7230,10 +7233,10 @@
         <v>0</v>
       </c>
       <c r="DL17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DM17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DN17" t="n">
         <v>0</v>
@@ -7254,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="DT17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DU17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DV17" t="n">
         <v>0</v>
@@ -7418,19 +7421,19 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
         <v>21</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>18</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
@@ -7490,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="BE18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BF18" t="n">
         <v>0</v>
@@ -7502,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="BI18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
@@ -7538,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="BU18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BV18" t="n">
         <v>0</v>
@@ -7562,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="CC18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CD18" t="n">
         <v>0</v>
@@ -7574,19 +7577,19 @@
         <v>0</v>
       </c>
       <c r="CG18" t="n">
+        <v>6</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
         <v>5</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>6</v>
       </c>
       <c r="CL18" t="n">
         <v>0</v>
@@ -7646,31 +7649,31 @@
         <v>0</v>
       </c>
       <c r="DE18" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI18" t="n">
         <v>5</v>
       </c>
-      <c r="DF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI18" t="n">
+      <c r="DJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM18" t="n">
         <v>1</v>
-      </c>
-      <c r="DJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM18" t="n">
-        <v>0</v>
       </c>
       <c r="DN18" t="n">
         <v>0</v>
@@ -7694,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="DU18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV18" t="n">
         <v>0</v>
@@ -7855,31 +7858,31 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
         <v>10</v>
       </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>35</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
@@ -7918,28 +7921,28 @@
         <v>16</v>
       </c>
       <c r="BB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19" t="n">
         <v>0</v>
       </c>
       <c r="BE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
         <v>17</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>13</v>
       </c>
       <c r="BJ19" t="n">
         <v>0</v>
@@ -7975,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="BU19" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BV19" t="n">
         <v>0</v>
@@ -7999,31 +8002,31 @@
         <v>0</v>
       </c>
       <c r="CC19" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
         <v>1</v>
       </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
+      <c r="CH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
         <v>9</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>1</v>
       </c>
       <c r="CL19" t="n">
         <v>0</v>
@@ -8083,20 +8086,20 @@
         <v>0</v>
       </c>
       <c r="DE19" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI19" t="n">
         <v>4</v>
       </c>
-      <c r="DF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>3</v>
-      </c>
       <c r="DJ19" t="n">
         <v>0</v>
       </c>
@@ -8107,19 +8110,19 @@
         <v>0</v>
       </c>
       <c r="DM19" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ19" t="n">
         <v>2</v>
-      </c>
-      <c r="DN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ19" t="n">
-        <v>1</v>
       </c>
       <c r="DR19" t="n">
         <v>0</v>
@@ -8292,31 +8295,31 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>36</v>
       </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
         <v>22</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>24</v>
       </c>
       <c r="AP20" t="n">
         <v>1</v>
@@ -8355,28 +8358,28 @@
         <v>23</v>
       </c>
       <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF20" t="n">
         <v>1</v>
       </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
         <v>23</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>13</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -8412,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="BU20" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="BV20" t="n">
         <v>0</v>
@@ -8436,31 +8439,31 @@
         <v>0</v>
       </c>
       <c r="CC20" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>14</v>
+      </c>
+      <c r="CH20" t="n">
         <v>-1</v>
       </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
         <v>9</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>14</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -8520,20 +8523,20 @@
         <v>0</v>
       </c>
       <c r="DE20" t="n">
+        <v>4</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI20" t="n">
         <v>2</v>
       </c>
-      <c r="DF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI20" t="n">
-        <v>4</v>
-      </c>
       <c r="DJ20" t="n">
         <v>0</v>
       </c>
@@ -8544,19 +8547,19 @@
         <v>0</v>
       </c>
       <c r="DM20" t="n">
+        <v>5</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ20" t="n">
         <v>2</v>
-      </c>
-      <c r="DN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ20" t="n">
-        <v>5</v>
       </c>
       <c r="DR20" t="n">
         <v>0</v>
@@ -8723,37 +8726,37 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
       </c>
       <c r="AG21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
         <v>46</v>
       </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>15</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>37</v>
       </c>
       <c r="AP21" t="n">
         <v>-1</v>
@@ -8795,25 +8798,25 @@
         <v>0</v>
       </c>
       <c r="BC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
         <v>2</v>
       </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
         <v>11</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>14</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
@@ -8849,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="BU21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BV21" t="n">
         <v>0</v>
@@ -8873,10 +8876,10 @@
         <v>0</v>
       </c>
       <c r="CC21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8888,7 +8891,7 @@
         <v>3</v>
       </c>
       <c r="CH21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI21" t="n">
         <v>0</v>
@@ -8957,55 +8960,55 @@
         <v>0</v>
       </c>
       <c r="DE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI21" t="n">
         <v>3</v>
       </c>
-      <c r="DF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI21" t="n">
+      <c r="DJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>3</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO21" t="n">
         <v>1</v>
       </c>
-      <c r="DJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM21" t="n">
+      <c r="DP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU21" t="n">
         <v>1</v>
-      </c>
-      <c r="DN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ21" t="n">
-        <v>3</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>0</v>
       </c>
       <c r="DV21" t="n">
         <v>0</v>
@@ -9160,37 +9163,37 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>53</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
         <v>2</v>
       </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
         <v>48</v>
       </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
         <v>1</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
         <v>18</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>53</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
@@ -9232,25 +9235,25 @@
         <v>0</v>
       </c>
       <c r="BC22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BD22" t="n">
         <v>0</v>
       </c>
       <c r="BE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
         <v>12</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>21</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
@@ -9286,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="BU22" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="BV22" t="n">
         <v>0</v>
@@ -9310,31 +9313,31 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="CD22" t="n">
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
         <v>1</v>
       </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
         <v>3</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>10</v>
       </c>
       <c r="CL22" t="n">
         <v>0</v>
@@ -9394,55 +9397,55 @@
         <v>0</v>
       </c>
       <c r="DE22" t="n">
+        <v>5</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI22" t="n">
         <v>2</v>
       </c>
-      <c r="DF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI22" t="n">
+      <c r="DJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ22" t="n">
+        <v>3</v>
+      </c>
+      <c r="DR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU22" t="n">
         <v>5</v>
-      </c>
-      <c r="DJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM22" t="n">
-        <v>5</v>
-      </c>
-      <c r="DN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU22" t="n">
-        <v>3</v>
       </c>
       <c r="DV22" t="n">
         <v>0</v>
@@ -9503,6 +9506,443 @@
       </c>
       <c r="EO22" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:145">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="n">
+        <v>42</v>
+      </c>
+      <c r="C23" t="n">
+        <v>41</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3071</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1582</v>
+      </c>
+      <c r="F23" t="n">
+        <v>30</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>378</v>
+      </c>
+      <c r="J23" t="n">
+        <v>42</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1220</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>109</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>82</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>74</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>78</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>33</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>39</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>-6</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>27</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>19</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>24</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>17</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>6</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>16</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>4</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>3</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>2</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO23" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/virus/dxy_data_recent_daily_inc.xlsx
+++ b/data/virus/dxy_data_recent_daily_inc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>全国</t>
   </si>
@@ -41,16 +41,16 @@
     <t>江西</t>
   </si>
   <si>
+    <t>重庆</t>
+  </si>
+  <si>
     <t>安徽</t>
   </si>
   <si>
-    <t>重庆</t>
+    <t>四川</t>
   </si>
   <si>
     <t>山东</t>
-  </si>
-  <si>
-    <t>四川</t>
   </si>
   <si>
     <t>江苏</t>
@@ -68,13 +68,16 @@
     <t>广西</t>
   </si>
   <si>
+    <t>河北</t>
+  </si>
+  <si>
     <t>陕西</t>
   </si>
   <si>
-    <t>河北</t>
+    <t>云南</t>
   </si>
   <si>
-    <t>云南</t>
+    <t>辽宁</t>
   </si>
   <si>
     <t>黑龙江</t>
@@ -83,16 +86,16 @@
     <t>海南</t>
   </si>
   <si>
-    <t>辽宁</t>
+    <t>山西</t>
   </si>
   <si>
-    <t>山西</t>
+    <t>甘肃</t>
   </si>
   <si>
     <t>天津</t>
   </si>
   <si>
-    <t>甘肃</t>
+    <t>贵州</t>
   </si>
   <si>
     <t>宁夏</t>
@@ -102,9 +105,6 @@
   </si>
   <si>
     <t>新疆</t>
-  </si>
-  <si>
-    <t>贵州</t>
   </si>
   <si>
     <t>吉林</t>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO23"/>
+  <dimension ref="A1:EO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5682,10 +5685,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -5694,10 +5697,10 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
@@ -5706,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -5718,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -5826,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
@@ -5838,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK14" t="n">
         <v>0</v>
@@ -5877,20 +5880,20 @@
         <v>0</v>
       </c>
       <c r="CW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA14" t="n">
         <v>2</v>
       </c>
-      <c r="CX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA14" t="n">
-        <v>0</v>
-      </c>
       <c r="DB14" t="n">
         <v>0</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI14" t="n">
         <v>0</v>
@@ -5934,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="DP14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
@@ -6119,20 +6122,20 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
         <v>3</v>
       </c>
-      <c r="AK15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
       <c r="AO15" t="n">
         <v>1</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -6158,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX15" t="n">
         <v>0</v>
@@ -6230,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV15" t="n">
         <v>0</v>
@@ -6242,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ15" t="n">
         <v>0</v>
@@ -6263,10 +6266,10 @@
         <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CH15" t="n">
         <v>0</v>
@@ -6275,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="CK15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -6290,43 +6293,43 @@
         <v>-1</v>
       </c>
       <c r="CO15" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="n">
         <v>2</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>2</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA15" t="n">
-        <v>0</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
@@ -6347,10 +6350,10 @@
         <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ15" t="n">
         <v>0</v>
@@ -6371,10 +6374,10 @@
         <v>0</v>
       </c>
       <c r="DP15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR15" t="n">
         <v>0</v>
@@ -6556,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>0</v>
@@ -6568,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
         <v>0</v>
@@ -6700,22 +6703,22 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
         <v>-1</v>
       </c>
-      <c r="CG16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>0</v>
-      </c>
       <c r="CK16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6724,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO16" t="n">
         <v>0</v>
@@ -6993,46 +6996,46 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
+        <v>-13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>-4</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AO17" t="n">
         <v>38</v>
       </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>-13</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>51</v>
-      </c>
       <c r="AP17" t="n">
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
         <v>19</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>23</v>
       </c>
       <c r="AX17" t="n">
         <v>0</v>
@@ -7095,7 +7098,7 @@
         <v>18</v>
       </c>
       <c r="BR17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS17" t="n">
         <v>0</v>
@@ -7104,19 +7107,19 @@
         <v>0</v>
       </c>
       <c r="BU17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
         <v>15</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>7</v>
       </c>
       <c r="BZ17" t="n">
         <v>0</v>
@@ -7131,40 +7134,40 @@
         <v>4</v>
       </c>
       <c r="CD17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
       </c>
       <c r="CF17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
         <v>8</v>
       </c>
-      <c r="CH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK17" t="n">
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
         <v>13</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>10</v>
       </c>
       <c r="CP17" t="n">
         <v>0</v>
@@ -7188,20 +7191,20 @@
         <v>0</v>
       </c>
       <c r="CW17" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA17" t="n">
         <v>5</v>
       </c>
-      <c r="CX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>4</v>
-      </c>
       <c r="DB17" t="n">
         <v>0</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="DE17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DF17" t="n">
         <v>0</v>
@@ -7236,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="DM17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DN17" t="n">
         <v>0</v>
@@ -7433,43 +7436,43 @@
         <v>0</v>
       </c>
       <c r="AK18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>21</v>
       </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
         <v>18</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>16</v>
       </c>
       <c r="AX18" t="n">
         <v>0</v>
@@ -7541,19 +7544,19 @@
         <v>0</v>
       </c>
       <c r="BU18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
         <v>7</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>5</v>
       </c>
       <c r="BZ18" t="n">
         <v>0</v>
@@ -7577,19 +7580,19 @@
         <v>0</v>
       </c>
       <c r="CG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
         <v>6</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>5</v>
       </c>
       <c r="CL18" t="n">
         <v>0</v>
@@ -7625,20 +7628,20 @@
         <v>0</v>
       </c>
       <c r="CW18" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA18" t="n">
         <v>4</v>
       </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>3</v>
-      </c>
       <c r="DB18" t="n">
         <v>0</v>
       </c>
@@ -7661,19 +7664,19 @@
         <v>0</v>
       </c>
       <c r="DI18" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM18" t="n">
         <v>5</v>
-      </c>
-      <c r="DJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM18" t="n">
-        <v>1</v>
       </c>
       <c r="DN18" t="n">
         <v>0</v>
@@ -7870,20 +7873,20 @@
         <v>0</v>
       </c>
       <c r="AK19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>10</v>
       </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>35</v>
-      </c>
       <c r="AP19" t="n">
         <v>0</v>
       </c>
@@ -7894,19 +7897,19 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
         <v>24</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>25</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
@@ -7978,19 +7981,19 @@
         <v>0</v>
       </c>
       <c r="BU19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
         <v>13</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>5</v>
       </c>
       <c r="BZ19" t="n">
         <v>0</v>
@@ -8014,10 +8017,10 @@
         <v>0</v>
       </c>
       <c r="CG19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CH19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI19" t="n">
         <v>0</v>
@@ -8026,19 +8029,19 @@
         <v>0</v>
       </c>
       <c r="CK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
         <v>9</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>5</v>
       </c>
       <c r="CP19" t="n">
         <v>0</v>
@@ -8062,20 +8065,20 @@
         <v>0</v>
       </c>
       <c r="CW19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA19" t="n">
         <v>4</v>
       </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>7</v>
-      </c>
       <c r="DB19" t="n">
         <v>0</v>
       </c>
@@ -8086,32 +8089,32 @@
         <v>0</v>
       </c>
       <c r="DE19" t="n">
+        <v>2</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI19" t="n">
         <v>3</v>
       </c>
-      <c r="DF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI19" t="n">
+      <c r="DJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM19" t="n">
         <v>4</v>
       </c>
-      <c r="DJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM19" t="n">
-        <v>1</v>
-      </c>
       <c r="DN19" t="n">
         <v>0</v>
       </c>
@@ -8122,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="DQ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DR19" t="n">
         <v>0</v>
@@ -8307,22 +8310,22 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
         <v>36</v>
       </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>22</v>
-      </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -8331,19 +8334,19 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
         <v>24</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>21</v>
       </c>
       <c r="AX20" t="n">
         <v>0</v>
@@ -8415,19 +8418,19 @@
         <v>0</v>
       </c>
       <c r="BU20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
         <v>11</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>15</v>
       </c>
       <c r="BZ20" t="n">
         <v>0</v>
@@ -8451,31 +8454,31 @@
         <v>0</v>
       </c>
       <c r="CG20" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
         <v>14</v>
       </c>
-      <c r="CH20" t="n">
+      <c r="CL20" t="n">
         <v>-1</v>
       </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
         <v>9</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>8</v>
       </c>
       <c r="CP20" t="n">
         <v>0</v>
@@ -8499,67 +8502,67 @@
         <v>0</v>
       </c>
       <c r="CW20" t="n">
+        <v>5</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA20" t="n">
         <v>6</v>
       </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA20" t="n">
+      <c r="DB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>4</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ20" t="n">
         <v>5</v>
-      </c>
-      <c r="DB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE20" t="n">
-        <v>4</v>
-      </c>
-      <c r="DF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI20" t="n">
-        <v>2</v>
-      </c>
-      <c r="DJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>5</v>
-      </c>
-      <c r="DN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ20" t="n">
-        <v>2</v>
       </c>
       <c r="DR20" t="n">
         <v>0</v>
@@ -8744,43 +8747,43 @@
         <v>0</v>
       </c>
       <c r="AK21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>46</v>
       </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>15</v>
-      </c>
       <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT21" t="n">
         <v>-1</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
         <v>34</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>18</v>
       </c>
       <c r="AX21" t="n">
         <v>0</v>
@@ -8852,19 +8855,19 @@
         <v>0</v>
       </c>
       <c r="BU21" t="n">
+        <v>15</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
         <v>10</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>15</v>
       </c>
       <c r="BZ21" t="n">
         <v>0</v>
@@ -8888,10 +8891,10 @@
         <v>0</v>
       </c>
       <c r="CG21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI21" t="n">
         <v>0</v>
@@ -8903,7 +8906,7 @@
         <v>3</v>
       </c>
       <c r="CL21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM21" t="n">
         <v>0</v>
@@ -8912,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="CO21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CP21" t="n">
         <v>0</v>
@@ -8936,31 +8939,31 @@
         <v>0</v>
       </c>
       <c r="CW21" t="n">
+        <v>5</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA21" t="n">
         <v>2</v>
       </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>5</v>
-      </c>
       <c r="DB21" t="n">
         <v>0</v>
       </c>
       <c r="DC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD21" t="n">
         <v>0</v>
       </c>
       <c r="DE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="n">
         <v>0</v>
@@ -8972,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="DI21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DJ21" t="n">
         <v>0</v>
@@ -8990,13 +8993,13 @@
         <v>0</v>
       </c>
       <c r="DO21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP21" t="n">
         <v>0</v>
       </c>
       <c r="DQ21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DR21" t="n">
         <v>0</v>
@@ -9175,28 +9178,28 @@
         <v>0</v>
       </c>
       <c r="AI22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
         <v>2</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
         <v>48</v>
       </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>18</v>
-      </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -9205,19 +9208,19 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
         <v>24</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>34</v>
       </c>
       <c r="AX22" t="n">
         <v>0</v>
@@ -9289,19 +9292,19 @@
         <v>0</v>
       </c>
       <c r="BU22" t="n">
+        <v>17</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
         <v>7</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>17</v>
       </c>
       <c r="BZ22" t="n">
         <v>0</v>
@@ -9319,37 +9322,37 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF22" t="n">
         <v>0</v>
       </c>
       <c r="CG22" t="n">
+        <v>5</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
         <v>10</v>
       </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK22" t="n">
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
         <v>3</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>5</v>
       </c>
       <c r="CP22" t="n">
         <v>0</v>
@@ -9373,56 +9376,56 @@
         <v>0</v>
       </c>
       <c r="CW22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA22" t="n">
         <v>3</v>
       </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA22" t="n">
+      <c r="DB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>5</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM22" t="n">
         <v>2</v>
       </c>
-      <c r="DB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE22" t="n">
-        <v>5</v>
-      </c>
-      <c r="DF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI22" t="n">
-        <v>2</v>
-      </c>
-      <c r="DJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM22" t="n">
-        <v>1</v>
-      </c>
       <c r="DN22" t="n">
         <v>0</v>
       </c>
@@ -9433,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="DQ22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DR22" t="n">
         <v>0</v>
@@ -9516,13 +9519,13 @@
         <v>42</v>
       </c>
       <c r="C23" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D23" t="n">
         <v>3071</v>
       </c>
       <c r="E23" t="n">
-        <v>1582</v>
+        <v>1663</v>
       </c>
       <c r="F23" t="n">
         <v>30</v>
@@ -9612,49 +9615,49 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
       </c>
       <c r="AK23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
         <v>37</v>
       </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>41</v>
-      </c>
       <c r="AP23" t="n">
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
       </c>
       <c r="AS23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
         <v>33</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>35</v>
       </c>
       <c r="AX23" t="n">
         <v>0</v>
@@ -9726,19 +9729,19 @@
         <v>0</v>
       </c>
       <c r="BU23" t="n">
+        <v>17</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
         <v>24</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>17</v>
       </c>
       <c r="BZ23" t="n">
         <v>0</v>
@@ -9753,7 +9756,7 @@
         <v>6</v>
       </c>
       <c r="CD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -9762,31 +9765,31 @@
         <v>0</v>
       </c>
       <c r="CG23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK23" t="n">
         <v>16</v>
       </c>
-      <c r="CH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK23" t="n">
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
         <v>3</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>4</v>
       </c>
       <c r="CP23" t="n">
         <v>0</v>
@@ -9810,44 +9813,44 @@
         <v>0</v>
       </c>
       <c r="CW23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA23" t="n">
         <v>4</v>
       </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA23" t="n">
+      <c r="DB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE23" t="n">
         <v>3</v>
       </c>
-      <c r="DB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE23" t="n">
+      <c r="DF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI23" t="n">
         <v>4</v>
       </c>
-      <c r="DF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI23" t="n">
-        <v>1</v>
-      </c>
       <c r="DJ23" t="n">
         <v>0</v>
       </c>
@@ -9858,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="DM23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DN23" t="n">
         <v>0</v>
@@ -9900,13 +9903,13 @@
         <v>0</v>
       </c>
       <c r="EA23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EB23" t="n">
         <v>0</v>
       </c>
       <c r="EC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED23" t="n">
         <v>0</v>
@@ -9942,6 +9945,443 @@
         <v>0</v>
       </c>
       <c r="EO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:145">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="n">
+        <v>45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-21</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2750</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1591</v>
+      </c>
+      <c r="F24" t="n">
+        <v>33</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-75</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>576</v>
+      </c>
+      <c r="J24" t="n">
+        <v>45</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-86</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1347</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>43</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>25</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>14</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>15</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>4</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>8</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>6</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>14</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/virus/dxy_data_recent_daily_inc.xlsx
+++ b/data/virus/dxy_data_recent_daily_inc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>全国</t>
   </si>
@@ -38,13 +38,16 @@
     <t>湖南</t>
   </si>
   <si>
+    <t>安徽</t>
+  </si>
+  <si>
     <t>江西</t>
   </si>
   <si>
     <t>重庆</t>
   </si>
   <si>
-    <t>安徽</t>
+    <t>江苏</t>
   </si>
   <si>
     <t>四川</t>
@@ -53,34 +56,31 @@
     <t>山东</t>
   </si>
   <si>
-    <t>江苏</t>
+    <t>北京</t>
   </si>
   <si>
     <t>上海</t>
   </si>
   <si>
-    <t>北京</t>
+    <t>福建</t>
   </si>
   <si>
-    <t>福建</t>
+    <t>陕西</t>
   </si>
   <si>
     <t>广西</t>
   </si>
   <si>
+    <t>云南</t>
+  </si>
+  <si>
     <t>河北</t>
   </si>
   <si>
-    <t>陕西</t>
-  </si>
-  <si>
-    <t>云南</t>
+    <t>黑龙江</t>
   </si>
   <si>
     <t>辽宁</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
   </si>
   <si>
     <t>海南</t>
@@ -89,10 +89,10 @@
     <t>山西</t>
   </si>
   <si>
-    <t>甘肃</t>
+    <t>天津</t>
   </si>
   <si>
-    <t>天津</t>
+    <t>甘肃</t>
   </si>
   <si>
     <t>贵州</t>
@@ -104,19 +104,19 @@
     <t>内蒙古</t>
   </si>
   <si>
-    <t>新疆</t>
+    <t>吉林</t>
   </si>
   <si>
-    <t>吉林</t>
+    <t>新疆</t>
   </si>
   <si>
     <t>香港</t>
   </si>
   <si>
-    <t>台湾</t>
+    <t>青海</t>
   </si>
   <si>
-    <t>青海</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>澳门</t>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO24"/>
+  <dimension ref="A1:EO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5685,23 +5688,23 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>5</v>
       </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
       <c r="AP14" t="n">
         <v>0</v>
       </c>
@@ -5709,20 +5712,20 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
         <v>2</v>
       </c>
-      <c r="AS14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
@@ -5736,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB14" t="n">
         <v>0</v>
@@ -5745,23 +5748,23 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
         <v>3</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BI14" t="n">
         <v>6</v>
       </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>10</v>
-      </c>
       <c r="BJ14" t="n">
         <v>0</v>
       </c>
@@ -5781,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14" t="n">
         <v>0</v>
@@ -5793,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5805,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY14" t="n">
         <v>0</v>
@@ -5817,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
@@ -5829,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
@@ -5841,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK14" t="n">
         <v>0</v>
@@ -5880,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CX14" t="n">
         <v>0</v>
@@ -5892,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="DA14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB14" t="n">
         <v>0</v>
@@ -5937,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="DP14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ14" t="n">
         <v>0</v>
@@ -5949,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU14" t="n">
         <v>0</v>
@@ -5976,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
         <v>0</v>
@@ -5988,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -6110,23 +6113,23 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>-1</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AK15" t="n">
         <v>2</v>
       </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1</v>
-      </c>
       <c r="AL15" t="n">
         <v>0</v>
       </c>
@@ -6134,71 +6137,71 @@
         <v>0</v>
       </c>
       <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI15" t="n">
         <v>3</v>
       </c>
-      <c r="AO15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ15" t="n">
         <v>0</v>
       </c>
@@ -6221,20 +6224,20 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
         <v>2</v>
       </c>
-      <c r="BR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>1</v>
-      </c>
       <c r="BV15" t="n">
         <v>0</v>
       </c>
@@ -6242,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BY15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ15" t="n">
         <v>0</v>
@@ -6254,34 +6257,34 @@
         <v>0</v>
       </c>
       <c r="CB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
         <v>-1</v>
       </c>
-      <c r="CC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CG15" t="n">
+      <c r="CK15" t="n">
         <v>2</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>0</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -6317,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CX15" t="n">
         <v>0</v>
@@ -6329,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="DA15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
@@ -6559,20 +6562,20 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>13</v>
       </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
       <c r="AO16" t="n">
         <v>0</v>
       </c>
@@ -6655,23 +6658,23 @@
         <v>0</v>
       </c>
       <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
         <v>-1</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BU16" t="n">
         <v>3</v>
       </c>
-      <c r="BR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
       <c r="BV16" t="n">
         <v>0</v>
       </c>
@@ -6703,10 +6706,10 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH16" t="n">
         <v>0</v>
@@ -6715,10 +6718,10 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="CK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6847,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="EB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC16" t="n">
         <v>0</v>
@@ -6859,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
         <v>0</v>
@@ -6984,94 +6987,94 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AG17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
         <v>16</v>
       </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>-13</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AO17" t="n">
         <v>51</v>
       </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>38</v>
-      </c>
       <c r="AP17" t="n">
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
         <v>-2</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AW17" t="n">
         <v>23</v>
       </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
         <v>19</v>
       </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>17</v>
-      </c>
       <c r="BB17" t="n">
         <v>0</v>
       </c>
       <c r="BC17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>27</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="n">
         <v>-10</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BI17" t="n">
         <v>24</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>27</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
@@ -7095,67 +7098,67 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
         <v>18</v>
       </c>
-      <c r="BR17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU17" t="n">
+      <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC17" t="n">
         <v>7</v>
       </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>15</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>4</v>
-      </c>
       <c r="CD17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
       </c>
       <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
         <v>-1</v>
       </c>
-      <c r="CG17" t="n">
+      <c r="CK17" t="n">
         <v>10</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>8</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -7191,19 +7194,19 @@
         <v>0</v>
       </c>
       <c r="CW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA17" t="n">
         <v>4</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>5</v>
       </c>
       <c r="DB17" t="n">
         <v>0</v>
@@ -7248,22 +7251,22 @@
         <v>0</v>
       </c>
       <c r="DP17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DQ17" t="n">
+        <v>4</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU17" t="n">
         <v>3</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>4</v>
       </c>
       <c r="DV17" t="n">
         <v>0</v>
@@ -7284,22 +7287,22 @@
         <v>0</v>
       </c>
       <c r="EB17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG17" t="n">
         <v>2</v>
-      </c>
-      <c r="ED17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EG17" t="n">
-        <v>1</v>
       </c>
       <c r="EH17" t="n">
         <v>0</v>
@@ -7424,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
@@ -7448,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
         <v>0</v>
@@ -7460,31 +7463,31 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
         <v>16</v>
       </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
         <v>-1</v>
       </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
         <v>18</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>13</v>
       </c>
       <c r="BB18" t="n">
         <v>0</v>
@@ -7496,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="BE18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BF18" t="n">
         <v>0</v>
@@ -7508,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="BI18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
@@ -7532,44 +7535,44 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
         <v>10</v>
       </c>
-      <c r="BR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU18" t="n">
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
         <v>5</v>
       </c>
-      <c r="BV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>7</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>11</v>
-      </c>
       <c r="CD18" t="n">
         <v>0</v>
       </c>
@@ -7580,19 +7583,19 @@
         <v>0</v>
       </c>
       <c r="CG18" t="n">
+        <v>6</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
         <v>5</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>6</v>
       </c>
       <c r="CL18" t="n">
         <v>0</v>
@@ -7628,19 +7631,19 @@
         <v>0</v>
       </c>
       <c r="CW18" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA18" t="n">
         <v>3</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>4</v>
       </c>
       <c r="DB18" t="n">
         <v>0</v>
@@ -7688,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="DQ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR18" t="n">
         <v>0</v>
@@ -7700,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="DU18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV18" t="n">
         <v>0</v>
@@ -7724,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="EC18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED18" t="n">
         <v>0</v>
@@ -7736,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="EG18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH18" t="n">
         <v>0</v>
@@ -7771,7 +7774,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
         <v>5794</v>
@@ -7861,32 +7864,32 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
         <v>12</v>
       </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>35</v>
       </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>10</v>
-      </c>
       <c r="AP19" t="n">
         <v>0</v>
       </c>
@@ -7897,55 +7900,55 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
         <v>25</v>
       </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
         <v>24</v>
       </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>16</v>
-      </c>
       <c r="BB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD19" t="n">
         <v>0</v>
       </c>
       <c r="BE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
         <v>13</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>17</v>
       </c>
       <c r="BJ19" t="n">
         <v>0</v>
@@ -7981,32 +7984,32 @@
         <v>0</v>
       </c>
       <c r="BU19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
         <v>5</v>
       </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>13</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>3</v>
-      </c>
       <c r="CD19" t="n">
         <v>0</v>
       </c>
@@ -8017,19 +8020,19 @@
         <v>0</v>
       </c>
       <c r="CG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
         <v>5</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>1</v>
       </c>
       <c r="CL19" t="n">
         <v>1</v>
@@ -8065,19 +8068,19 @@
         <v>0</v>
       </c>
       <c r="CW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA19" t="n">
         <v>7</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>4</v>
       </c>
       <c r="DB19" t="n">
         <v>0</v>
@@ -8125,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="DQ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DR19" t="n">
         <v>0</v>
@@ -8137,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="DU19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DV19" t="n">
         <v>0</v>
@@ -8161,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="EC19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="ED19" t="n">
         <v>0</v>
@@ -8173,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="EG19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EH19" t="n">
         <v>0</v>
@@ -8208,7 +8211,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
         <v>1179</v>
@@ -8298,32 +8301,32 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
         <v>24</v>
       </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
         <v>22</v>
       </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>36</v>
-      </c>
       <c r="AP20" t="n">
         <v>0</v>
       </c>
@@ -8334,55 +8337,55 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
         <v>21</v>
       </c>
-      <c r="AT20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
+      <c r="AX20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
         <v>24</v>
       </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
+      <c r="BB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
         <v>23</v>
       </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
         <v>2</v>
       </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
         <v>13</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>23</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -8406,44 +8409,44 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
         <v>5</v>
       </c>
-      <c r="BR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU20" t="n">
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>25</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
         <v>15</v>
       </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>11</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>25</v>
-      </c>
       <c r="CD20" t="n">
         <v>0</v>
       </c>
@@ -8454,19 +8457,19 @@
         <v>0</v>
       </c>
       <c r="CG20" t="n">
+        <v>14</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
         <v>8</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>14</v>
       </c>
       <c r="CL20" t="n">
         <v>-1</v>
@@ -8502,19 +8505,19 @@
         <v>0</v>
       </c>
       <c r="CW20" t="n">
+        <v>6</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA20" t="n">
         <v>5</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>6</v>
       </c>
       <c r="DB20" t="n">
         <v>0</v>
@@ -8562,19 +8565,19 @@
         <v>0</v>
       </c>
       <c r="DQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU20" t="n">
         <v>5</v>
-      </c>
-      <c r="DR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU20" t="n">
-        <v>2</v>
       </c>
       <c r="DV20" t="n">
         <v>0</v>
@@ -8729,38 +8732,38 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
         <v>3</v>
       </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
         <v>37</v>
       </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>15</v>
       </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>46</v>
-      </c>
       <c r="AP21" t="n">
         <v>0</v>
       </c>
@@ -8771,55 +8774,55 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
         <v>18</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="AX21" t="n">
         <v>-1</v>
       </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
         <v>34</v>
       </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>29</v>
-      </c>
       <c r="BB21" t="n">
         <v>0</v>
       </c>
       <c r="BC21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD21" t="n">
         <v>0</v>
       </c>
       <c r="BE21" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
         <v>14</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>11</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
@@ -8837,50 +8840,50 @@
         <v>0</v>
       </c>
       <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS21" t="n">
         <v>2</v>
       </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
         <v>7</v>
       </c>
-      <c r="BR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU21" t="n">
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
         <v>15</v>
       </c>
-      <c r="BV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>10</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>7</v>
-      </c>
       <c r="CD21" t="n">
         <v>0</v>
       </c>
@@ -8891,19 +8894,19 @@
         <v>0</v>
       </c>
       <c r="CG21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK21" t="n">
         <v>6</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>3</v>
       </c>
       <c r="CL21" t="n">
         <v>1</v>
@@ -8939,19 +8942,19 @@
         <v>0</v>
       </c>
       <c r="CW21" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA21" t="n">
         <v>5</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>2</v>
       </c>
       <c r="DB21" t="n">
         <v>0</v>
@@ -8999,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="DQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU21" t="n">
         <v>3</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>1</v>
       </c>
       <c r="DV21" t="n">
         <v>0</v>
@@ -9035,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="EC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED21" t="n">
         <v>0</v>
@@ -9047,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="EG21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH21" t="n">
         <v>0</v>
@@ -9166,97 +9169,97 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
       </c>
       <c r="AG22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
         <v>53</v>
       </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
         <v>18</v>
       </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>48</v>
-      </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
       </c>
       <c r="AS22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
         <v>34</v>
       </c>
-      <c r="AT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
         <v>24</v>
       </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>30</v>
-      </c>
       <c r="BB22" t="n">
         <v>0</v>
       </c>
       <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
         <v>7</v>
       </c>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="n">
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
         <v>21</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>12</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
@@ -9280,67 +9283,67 @@
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
         <v>20</v>
       </c>
-      <c r="BR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU22" t="n">
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
         <v>17</v>
       </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>7</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>19</v>
-      </c>
       <c r="CD22" t="n">
         <v>0</v>
       </c>
       <c r="CE22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF22" t="n">
         <v>0</v>
       </c>
       <c r="CG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
         <v>5</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>10</v>
       </c>
       <c r="CL22" t="n">
         <v>0</v>
@@ -9376,19 +9379,19 @@
         <v>0</v>
       </c>
       <c r="CW22" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA22" t="n">
         <v>2</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>3</v>
       </c>
       <c r="DB22" t="n">
         <v>0</v>
@@ -9436,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="DQ22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DR22" t="n">
         <v>0</v>
@@ -9448,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="DU22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DV22" t="n">
         <v>0</v>
@@ -9472,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="EC22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ED22" t="n">
         <v>0</v>
@@ -9484,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="EG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EH22" t="n">
         <v>0</v>
@@ -9519,7 +9522,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" t="n">
         <v>3071</v>
@@ -9603,97 +9606,97 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
         <v>4</v>
       </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
         <v>78</v>
       </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
         <v>41</v>
       </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>37</v>
-      </c>
       <c r="AP23" t="n">
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
       </c>
       <c r="AS23" t="n">
+        <v>39</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
         <v>35</v>
       </c>
-      <c r="AT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
         <v>33</v>
       </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>39</v>
-      </c>
       <c r="BB23" t="n">
         <v>0</v>
       </c>
       <c r="BC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
         <v>-6</v>
       </c>
-      <c r="BD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="n">
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
         <v>27</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>7</v>
       </c>
       <c r="BJ23" t="n">
         <v>0</v>
@@ -9717,46 +9720,46 @@
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
+        <v>24</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
         <v>9</v>
       </c>
-      <c r="BR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU23" t="n">
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
         <v>17</v>
       </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>24</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>6</v>
-      </c>
       <c r="CD23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -9765,19 +9768,19 @@
         <v>0</v>
       </c>
       <c r="CG23" t="n">
+        <v>16</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK23" t="n">
         <v>4</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>16</v>
       </c>
       <c r="CL23" t="n">
         <v>0</v>
@@ -9813,19 +9816,19 @@
         <v>0</v>
       </c>
       <c r="CW23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA23" t="n">
         <v>3</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA23" t="n">
-        <v>4</v>
       </c>
       <c r="DB23" t="n">
         <v>0</v>
@@ -9867,25 +9870,25 @@
         <v>0</v>
       </c>
       <c r="DO23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP23" t="n">
         <v>0</v>
       </c>
       <c r="DQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU23" t="n">
         <v>3</v>
-      </c>
-      <c r="DR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU23" t="n">
-        <v>0</v>
       </c>
       <c r="DV23" t="n">
         <v>0</v>
@@ -9903,25 +9906,25 @@
         <v>0</v>
       </c>
       <c r="EA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB23" t="n">
         <v>0</v>
       </c>
       <c r="EC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED23" t="n">
         <v>0</v>
       </c>
       <c r="EE23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF23" t="n">
         <v>0</v>
       </c>
       <c r="EG23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH23" t="n">
         <v>0</v>
@@ -9953,22 +9956,22 @@
         <v>60</v>
       </c>
       <c r="B24" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="n">
-        <v>-21</v>
+        <v>61</v>
       </c>
       <c r="D24" t="n">
         <v>2750</v>
       </c>
       <c r="E24" t="n">
-        <v>1591</v>
+        <v>2089</v>
       </c>
       <c r="F24" t="n">
         <v>33</v>
       </c>
       <c r="G24" t="n">
-        <v>-75</v>
+        <v>31</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -9980,7 +9983,7 @@
         <v>45</v>
       </c>
       <c r="K24" t="n">
-        <v>-86</v>
+        <v>80</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9992,25 +9995,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -10028,110 +10031,110 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
         <v>2</v>
       </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
         <v>46</v>
       </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
         <v>32</v>
       </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
       <c r="AP24" t="n">
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
         <v>2</v>
       </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
         <v>30</v>
       </c>
-      <c r="AT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>6</v>
-      </c>
       <c r="AX24" t="n">
         <v>0</v>
       </c>
       <c r="AY24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ24" t="n">
         <v>0</v>
       </c>
       <c r="BA24" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BB24" t="n">
         <v>0</v>
       </c>
       <c r="BC24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>35</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
         <v>4</v>
       </c>
-      <c r="BD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE24" t="n">
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
         <v>25</v>
       </c>
-      <c r="BF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>18</v>
-      </c>
       <c r="BJ24" t="n">
         <v>0</v>
       </c>
@@ -10142,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BN24" t="n">
         <v>0</v>
@@ -10154,44 +10157,44 @@
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
+        <v>14</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
         <v>13</v>
       </c>
-      <c r="BR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU24" t="n">
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>15</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
         <v>14</v>
       </c>
-      <c r="BV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>7</v>
-      </c>
       <c r="CD24" t="n">
         <v>0</v>
       </c>
@@ -10202,19 +10205,19 @@
         <v>0</v>
       </c>
       <c r="CG24" t="n">
+        <v>21</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
         <v>15</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>0</v>
       </c>
       <c r="CL24" t="n">
         <v>0</v>
@@ -10250,19 +10253,19 @@
         <v>0</v>
       </c>
       <c r="CW24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA24" t="n">
         <v>6</v>
-      </c>
-      <c r="CX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA24" t="n">
-        <v>0</v>
       </c>
       <c r="DB24" t="n">
         <v>0</v>
@@ -10286,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="DI24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DJ24" t="n">
         <v>0</v>
@@ -10298,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="DM24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DN24" t="n">
         <v>0</v>
@@ -10310,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="DQ24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DR24" t="n">
         <v>0</v>
@@ -10322,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="DU24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV24" t="n">
         <v>0</v>
@@ -10334,19 +10337,19 @@
         <v>0</v>
       </c>
       <c r="DY24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ24" t="n">
         <v>0</v>
       </c>
       <c r="EA24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="EB24" t="n">
         <v>0</v>
       </c>
       <c r="EC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED24" t="n">
         <v>0</v>
@@ -10382,6 +10385,443 @@
         <v>0</v>
       </c>
       <c r="EO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:145">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="n">
+        <v>45</v>
+      </c>
+      <c r="C25" t="n">
+        <v>109</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1556</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2588</v>
+      </c>
+      <c r="F25" t="n">
+        <v>32</v>
+      </c>
+      <c r="G25" t="n">
+        <v>32</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>894</v>
+      </c>
+      <c r="J25" t="n">
+        <v>45</v>
+      </c>
+      <c r="K25" t="n">
+        <v>49</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1921</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>8</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>62</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>84</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>71</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>74</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>43</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>47</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>27</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>24</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>15</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>15</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>9</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>9</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>11</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>5</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>9</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>4</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>6</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>5</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>3</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/virus/dxy_data_recent_daily_inc.xlsx
+++ b/data/virus/dxy_data_recent_daily_inc.xlsx
@@ -10396,13 +10396,13 @@
         <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="D25" t="n">
         <v>1556</v>
       </c>
       <c r="E25" t="n">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="F25" t="n">
         <v>32</v>
@@ -10696,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="CY25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CZ25" t="n">
         <v>0</v>

--- a/data/virus/dxy_data_recent_daily_inc.xlsx
+++ b/data/virus/dxy_data_recent_daily_inc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>全国</t>
   </si>
@@ -26,10 +26,10 @@
     <t>湖北</t>
   </si>
   <si>
-    <t>浙江</t>
+    <t>广东</t>
   </si>
   <si>
-    <t>广东</t>
+    <t>浙江</t>
   </si>
   <si>
     <t>河南</t>
@@ -50,10 +50,10 @@
     <t>江苏</t>
   </si>
   <si>
-    <t>四川</t>
+    <t>山东</t>
   </si>
   <si>
-    <t>山东</t>
+    <t>四川</t>
   </si>
   <si>
     <t>北京</t>
@@ -71,13 +71,13 @@
     <t>广西</t>
   </si>
   <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
     <t>云南</t>
   </si>
   <si>
     <t>河北</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
   </si>
   <si>
     <t>辽宁</t>
@@ -98,10 +98,10 @@
     <t>贵州</t>
   </si>
   <si>
-    <t>宁夏</t>
+    <t>内蒙古</t>
   </si>
   <si>
-    <t>内蒙古</t>
+    <t>宁夏</t>
   </si>
   <si>
     <t>吉林</t>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2020-02-02</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO25"/>
+  <dimension ref="A1:EO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5628,22 +5631,22 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>17</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>11</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="U14" t="n">
         <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>17</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -5724,19 +5727,19 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>2</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
       </c>
       <c r="BA14" t="n">
         <v>1</v>
@@ -5808,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY14" t="n">
         <v>0</v>
@@ -5820,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
@@ -5916,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI14" t="n">
         <v>0</v>
@@ -5928,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM14" t="n">
         <v>0</v>
@@ -6065,22 +6068,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>9</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>-11</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="U15" t="n">
         <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>-3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>9</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -6164,19 +6167,19 @@
         <v>0</v>
       </c>
       <c r="AW15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
         <v>4</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>1</v>
       </c>
       <c r="BB15" t="n">
         <v>0</v>
@@ -6245,20 +6248,20 @@
         <v>0</v>
       </c>
       <c r="BX15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
         <v>-1</v>
       </c>
-      <c r="BY15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>0</v>
-      </c>
       <c r="CC15" t="n">
         <v>1</v>
       </c>
@@ -6269,10 +6272,10 @@
         <v>0</v>
       </c>
       <c r="CF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH15" t="n">
         <v>0</v>
@@ -6353,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="DH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL15" t="n">
         <v>-1</v>
       </c>
-      <c r="DI15" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL15" t="n">
-        <v>0</v>
-      </c>
       <c r="DM15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN15" t="n">
         <v>0</v>
@@ -6682,10 +6685,10 @@
         <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BY16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ16" t="n">
         <v>0</v>
@@ -6706,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH16" t="n">
         <v>0</v>
@@ -6936,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q17" t="n">
         <v>52</v>
@@ -6948,10 +6951,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>52</v>
@@ -7032,25 +7035,25 @@
         <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>-2</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="BA17" t="n">
         <v>23</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>19</v>
       </c>
       <c r="BB17" t="n">
         <v>0</v>
@@ -7113,7 +7116,7 @@
         <v>18</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -7122,31 +7125,31 @@
         <v>0</v>
       </c>
       <c r="BY17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC17" t="n">
         <v>4</v>
       </c>
-      <c r="BZ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC17" t="n">
+      <c r="CD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
         <v>7</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>8</v>
       </c>
       <c r="CH17" t="n">
         <v>0</v>
@@ -7379,19 +7382,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
+        <v>20</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>42</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>20</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -7469,25 +7472,25 @@
         <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AV18" t="n">
         <v>0</v>
       </c>
       <c r="AW18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
         <v>16</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>0</v>
@@ -7559,31 +7562,31 @@
         <v>0</v>
       </c>
       <c r="BY18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
         <v>11</v>
       </c>
-      <c r="BZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC18" t="n">
+      <c r="CD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
         <v>5</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>6</v>
       </c>
       <c r="CH18" t="n">
         <v>0</v>
@@ -7667,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="DI18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DJ18" t="n">
         <v>0</v>
@@ -7679,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="DM18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DN18" t="n">
         <v>0</v>
@@ -7816,19 +7819,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>48</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>24</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>48</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -7912,19 +7915,19 @@
         <v>0</v>
       </c>
       <c r="AW19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
         <v>25</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>24</v>
       </c>
       <c r="BB19" t="n">
         <v>0</v>
@@ -7996,31 +7999,31 @@
         <v>0</v>
       </c>
       <c r="BY19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
         <v>3</v>
       </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC19" t="n">
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
         <v>5</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>1</v>
       </c>
       <c r="CH19" t="n">
         <v>0</v>
@@ -8104,19 +8107,19 @@
         <v>0</v>
       </c>
       <c r="DI19" t="n">
+        <v>4</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM19" t="n">
         <v>3</v>
-      </c>
-      <c r="DJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM19" t="n">
-        <v>4</v>
       </c>
       <c r="DN19" t="n">
         <v>0</v>
@@ -8247,25 +8250,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
+        <v>42</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>45</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>42</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -8340,7 +8343,7 @@
         <v>23</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -8349,19 +8352,19 @@
         <v>0</v>
       </c>
       <c r="AW20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
         <v>21</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>24</v>
       </c>
       <c r="BB20" t="n">
         <v>1</v>
@@ -8433,31 +8436,31 @@
         <v>0</v>
       </c>
       <c r="BY20" t="n">
+        <v>14</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
         <v>25</v>
       </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
         <v>15</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>14</v>
       </c>
       <c r="CH20" t="n">
         <v>0</v>
@@ -8541,19 +8544,19 @@
         <v>0</v>
       </c>
       <c r="DI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM20" t="n">
         <v>4</v>
-      </c>
-      <c r="DJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM20" t="n">
-        <v>2</v>
       </c>
       <c r="DN20" t="n">
         <v>0</v>
@@ -8684,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>53</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>2</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>123</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>53</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -8777,7 +8780,7 @@
         <v>29</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -8786,19 +8789,19 @@
         <v>0</v>
       </c>
       <c r="AW21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
         <v>18</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>34</v>
       </c>
       <c r="BB21" t="n">
         <v>0</v>
@@ -8870,31 +8873,31 @@
         <v>0</v>
       </c>
       <c r="BY21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
         <v>7</v>
       </c>
-      <c r="BZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC21" t="n">
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
         <v>15</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>3</v>
       </c>
       <c r="CH21" t="n">
         <v>0</v>
@@ -8978,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="DI21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DJ21" t="n">
         <v>0</v>
@@ -8990,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="DM21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DN21" t="n">
         <v>0</v>
@@ -9121,25 +9124,25 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
+        <v>70</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>132</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>70</v>
       </c>
       <c r="V22" t="n">
         <v>-1</v>
@@ -9214,7 +9217,7 @@
         <v>30</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" t="n">
         <v>1</v>
@@ -9223,19 +9226,19 @@
         <v>0</v>
       </c>
       <c r="AW22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
         <v>34</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>24</v>
       </c>
       <c r="BB22" t="n">
         <v>0</v>
@@ -9307,31 +9310,31 @@
         <v>0</v>
       </c>
       <c r="BY22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
         <v>19</v>
       </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
+      <c r="CD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
         <v>17</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>10</v>
       </c>
       <c r="CH22" t="n">
         <v>0</v>
@@ -9415,19 +9418,19 @@
         <v>0</v>
       </c>
       <c r="DI22" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM22" t="n">
         <v>5</v>
-      </c>
-      <c r="DJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM22" t="n">
-        <v>2</v>
       </c>
       <c r="DN22" t="n">
         <v>0</v>
@@ -9564,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9576,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -9654,25 +9657,25 @@
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV23" t="n">
         <v>0</v>
       </c>
       <c r="AW23" t="n">
+        <v>33</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
         <v>35</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>33</v>
       </c>
       <c r="BB23" t="n">
         <v>0</v>
@@ -9735,7 +9738,7 @@
         <v>9</v>
       </c>
       <c r="BV23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW23" t="n">
         <v>0</v>
@@ -9744,31 +9747,31 @@
         <v>0</v>
       </c>
       <c r="BY23" t="n">
+        <v>16</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
         <v>6</v>
       </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
+      <c r="CD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
         <v>17</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>16</v>
       </c>
       <c r="CH23" t="n">
         <v>0</v>
@@ -9852,19 +9855,19 @@
         <v>0</v>
       </c>
       <c r="DI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM23" t="n">
         <v>4</v>
-      </c>
-      <c r="DJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM23" t="n">
-        <v>1</v>
       </c>
       <c r="DN23" t="n">
         <v>0</v>
@@ -9995,25 +9998,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>127</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>6</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>62</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>127</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -10091,25 +10094,25 @@
         <v>0</v>
       </c>
       <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
         <v>2</v>
       </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
         <v>30</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>24</v>
       </c>
       <c r="BB24" t="n">
         <v>0</v>
@@ -10175,37 +10178,37 @@
         <v>0</v>
       </c>
       <c r="BW24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX24" t="n">
         <v>0</v>
       </c>
       <c r="BY24" t="n">
+        <v>21</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
         <v>15</v>
       </c>
-      <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC24" t="n">
+      <c r="CD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
         <v>14</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>21</v>
       </c>
       <c r="CH24" t="n">
         <v>0</v>
@@ -10283,25 +10286,25 @@
         <v>0</v>
       </c>
       <c r="DG24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH24" t="n">
         <v>0</v>
       </c>
       <c r="DI24" t="n">
+        <v>4</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM24" t="n">
         <v>5</v>
-      </c>
-      <c r="DJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK24" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM24" t="n">
-        <v>4</v>
       </c>
       <c r="DN24" t="n">
         <v>0</v>
@@ -10393,10 +10396,10 @@
         <v>61</v>
       </c>
       <c r="B25" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D25" t="n">
         <v>1556</v>
@@ -10429,28 +10432,28 @@
         <v>1921</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
+        <v>4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>84</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
         <v>8</v>
       </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>62</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>84</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -10528,25 +10531,25 @@
         <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV25" t="n">
         <v>0</v>
       </c>
       <c r="AW25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
         <v>24</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>23</v>
       </c>
       <c r="BB25" t="n">
         <v>0</v>
@@ -10612,22 +10615,22 @@
         <v>0</v>
       </c>
       <c r="BW25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BX25" t="n">
         <v>0</v>
       </c>
       <c r="BY25" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BZ25" t="n">
         <v>0</v>
       </c>
       <c r="CA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC25" t="n">
         <v>8</v>
@@ -10636,13 +10639,13 @@
         <v>0</v>
       </c>
       <c r="CE25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CF25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG25" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="CH25" t="n">
         <v>0</v>
@@ -10726,19 +10729,19 @@
         <v>0</v>
       </c>
       <c r="DI25" t="n">
+        <v>4</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM25" t="n">
         <v>2</v>
-      </c>
-      <c r="DJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM25" t="n">
-        <v>4</v>
       </c>
       <c r="DN25" t="n">
         <v>0</v>
@@ -10822,6 +10825,443 @@
         <v>0</v>
       </c>
       <c r="EO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:145">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="n">
+        <v>56</v>
+      </c>
+      <c r="C26" t="n">
+        <v>92</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2851</v>
+      </c>
+      <c r="F26" t="n">
+        <v>41</v>
+      </c>
+      <c r="G26" t="n">
+        <v>90</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1033</v>
+      </c>
+      <c r="J26" t="n">
+        <v>56</v>
+      </c>
+      <c r="K26" t="n">
+        <v>80</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2103</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>79</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>13</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>63</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>10</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>73</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>68</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>58</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>35</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>29</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>16</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>-2</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>23</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>9</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>8</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW26" t="n">
+        <v>11</v>
+      </c>
+      <c r="CX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA26" t="n">
+        <v>11</v>
+      </c>
+      <c r="DB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE26" t="n">
+        <v>8</v>
+      </c>
+      <c r="DF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>7</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>3</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>-6</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>9</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>3</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY26" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC26" t="n">
+        <v>2</v>
+      </c>
+      <c r="ED26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO26" t="n">
         <v>0</v>
       </c>
     </row>
